--- a/biology/Zoologie/Heterodontus/Heterodontus.xlsx
+++ b/biology/Zoologie/Heterodontus/Heterodontus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterodontus est un genre de requins primitifs. La famille et l'ordre de ce groupe sont monotypiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur synapomorphie est d'avoir un dard empoisonné sur chacune de leurs deux nageoires dorsales, comme les requins fossiles d'il y a 150 millions d'années (mais aussi quelques espèces actuelles de l'ordre des squaliformes). La bouche, caractéristique des Hétérodontiformes, se trouve loin devant le nez et contient de petites dents permettant de saisir les proies et plus grosses pour broyer les crustacés dont ils se nourrissent (le nom du genre signifie « dents étranges » en grec). Ils possèdent, en outre, des narines proéminentes et largement espacées. La tête est anguleuse et les nageoires pectorales souvent larges. 
 Ils sont relativement petits puisqu'ils mesurent de 50 à 150 cm (rarement jusqu'à 2 m). Ils vivent dans les eaux tropicales et subtropicales.
@@ -544,7 +558,9 @@
           <t>Espèces ancestrales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heterodontiformes sont apparus tôt dans le Jurassique, bien avant les autres Galeomorphii, groupe qui inclut tous les requins modernes sauf les Scyliorhinidae, Dalatiidae et Squalidae. Ils n'ont cependant jamais été très répandus.
 </t>
@@ -575,9 +591,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèces actuelles selon World Register of Marine Species                               (29 juin 2021)[1] et FishBase                                           (29 juin 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces actuelles selon World Register of Marine Species                               (29 juin 2021) et FishBase                                           (29 juin 2021) :
 Heterodontus francisci Girard, 1855
 Heterodontus galeatus Günther, 1870
 Heterodontus japonicus Maclay &amp; W. J. Macleay, 1884
@@ -596,7 +614,7 @@
 			Heterodontus ramalheira
 			Heterodontus zebra
 			Fossile de Heterodontus zitteli
-Espèce fossiles selon Paleobiology Database                   (29 juin 2021)[3] :
+Espèce fossiles selon Paleobiology Database                   (29 juin 2021) :
 Cestracion cainozoicus †
 Cestracion coleridgensis †
 Cestracion elongatus †
